--- a/steno_data.xlsx
+++ b/steno_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1104">
   <si>
     <t>a</t>
   </si>
@@ -1723,9 +1723,6 @@
     <t>lu</t>
   </si>
   <si>
-    <t>luigi</t>
-  </si>
-  <si>
     <t>_l</t>
   </si>
   <si>
@@ -1753,9 +1750,6 @@
     <t>ga</t>
   </si>
   <si>
-    <t>gamma</t>
-  </si>
-  <si>
     <t>my</t>
   </si>
   <si>
@@ -1957,9 +1951,6 @@
     <t>gp</t>
   </si>
   <si>
-    <t>gpuarray</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -2759,9 +2750,6 @@
   </si>
   <si>
     <t>gh</t>
-  </si>
-  <si>
-    <t>ghex</t>
   </si>
   <si>
     <t>pf</t>
@@ -3334,6 +3322,34 @@
   </si>
   <si>
     <t>send</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gitadd</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>git add</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gitpush</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>git push</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gitpull</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>git pull</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -4272,24 +4288,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="C506" sqref="C506"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D1" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4300,10 +4316,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4314,10 +4330,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4328,10 +4344,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D4" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4342,10 +4358,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4359,7 +4375,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4370,10 +4386,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D7" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4384,10 +4400,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4401,7 +4417,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4412,10 +4428,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D10" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4429,7 +4445,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4443,7 +4459,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4454,10 +4470,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D13" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4468,10 +4484,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D14" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4482,10 +4498,10 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D15" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4496,10 +4512,10 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D16" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4510,10 +4526,10 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D17" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4527,7 +4543,7 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4538,10 +4554,10 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D19" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4555,7 +4571,7 @@
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4566,10 +4582,10 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D21" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4583,7 +4599,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4597,7 +4613,7 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4608,10 +4624,10 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D24" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4622,10 +4638,10 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D25" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4639,7 +4655,7 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4653,7 +4669,7 @@
         <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4664,10 +4680,10 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D28" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4681,7 +4697,7 @@
         <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4692,10 +4708,10 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D30" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4709,7 +4725,7 @@
         <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4723,7 +4739,7 @@
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4739,7 +4755,7 @@
         <v>True</v>
       </c>
       <c r="D33" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4750,10 +4766,10 @@
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D34" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4767,7 +4783,7 @@
         <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4783,7 +4799,7 @@
         <v>False</v>
       </c>
       <c r="D36" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4794,10 +4810,10 @@
         <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D37" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4808,10 +4824,10 @@
         <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D38" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4825,7 +4841,7 @@
         <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4836,10 +4852,10 @@
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="D40" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4850,10 +4866,10 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D41" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4864,10 +4880,10 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D42" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4878,10 +4894,10 @@
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D43" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4892,10 +4908,10 @@
         <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D44" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4906,10 +4922,10 @@
         <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D45" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4920,10 +4936,10 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D46" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4937,7 +4953,7 @@
         <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4948,10 +4964,10 @@
         <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D48" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4962,10 +4978,10 @@
         <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D49" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4979,7 +4995,7 @@
         <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4993,7 +5009,7 @@
         <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5004,10 +5020,10 @@
         <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D52" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5018,10 +5034,10 @@
         <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D53" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5032,10 +5048,10 @@
         <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D54" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5049,7 +5065,7 @@
         <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5060,10 +5076,10 @@
         <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D56" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5077,7 +5093,7 @@
         <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5091,7 +5107,7 @@
         <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5102,10 +5118,10 @@
         <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D59" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5119,7 +5135,7 @@
         <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5133,7 +5149,7 @@
         <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5147,7 +5163,7 @@
         <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5161,7 +5177,7 @@
         <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5175,7 +5191,7 @@
         <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5189,7 +5205,7 @@
         <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5203,7 +5219,7 @@
         <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5214,10 +5230,10 @@
         <v>128</v>
       </c>
       <c r="C67" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D67" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5231,7 +5247,7 @@
         <v>130</v>
       </c>
       <c r="D68" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5242,10 +5258,10 @@
         <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="D69" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5259,7 +5275,7 @@
         <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5270,10 +5286,10 @@
         <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D71" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5287,7 +5303,7 @@
         <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5301,7 +5317,7 @@
         <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5312,10 +5328,10 @@
         <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D74" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5329,7 +5345,7 @@
         <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5343,7 +5359,7 @@
         <v>145</v>
       </c>
       <c r="D76" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5357,7 +5373,7 @@
         <v>147</v>
       </c>
       <c r="D77" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5368,10 +5384,10 @@
         <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D78" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5385,7 +5401,7 @@
         <v>151</v>
       </c>
       <c r="D79" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5399,7 +5415,7 @@
         <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5410,10 +5426,10 @@
         <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D81" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5424,10 +5440,10 @@
         <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D82" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5441,7 +5457,7 @@
         <v>159</v>
       </c>
       <c r="D83" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5455,7 +5471,7 @@
         <v>161</v>
       </c>
       <c r="D84" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5469,7 +5485,7 @@
         <v>163</v>
       </c>
       <c r="D85" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5483,7 +5499,7 @@
         <v>165</v>
       </c>
       <c r="D86" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5497,7 +5513,7 @@
         <v>167</v>
       </c>
       <c r="D87" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5511,7 +5527,7 @@
         <v>169</v>
       </c>
       <c r="D88" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5525,7 +5541,7 @@
         <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5539,7 +5555,7 @@
         <v>173</v>
       </c>
       <c r="D90" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5553,7 +5569,7 @@
         <v>175</v>
       </c>
       <c r="D91" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5567,7 +5583,7 @@
         <v>177</v>
       </c>
       <c r="D92" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5581,7 +5597,7 @@
         <v>179</v>
       </c>
       <c r="D93" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5595,7 +5611,7 @@
         <v>181</v>
       </c>
       <c r="D94" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5609,7 +5625,7 @@
         <v>183</v>
       </c>
       <c r="D95" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5623,7 +5639,7 @@
         <v>185</v>
       </c>
       <c r="D96" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5637,7 +5653,7 @@
         <v>187</v>
       </c>
       <c r="D97" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5651,7 +5667,7 @@
         <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5662,10 +5678,10 @@
         <v>191</v>
       </c>
       <c r="C99" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D99" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5676,10 +5692,10 @@
         <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D100" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5693,7 +5709,7 @@
         <v>195</v>
       </c>
       <c r="D101" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5704,10 +5720,10 @@
         <v>197</v>
       </c>
       <c r="C102" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D102" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5721,7 +5737,7 @@
         <v>199</v>
       </c>
       <c r="D103" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5735,7 +5751,7 @@
         <v>201</v>
       </c>
       <c r="D104" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5749,7 +5765,7 @@
         <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5763,7 +5779,7 @@
         <v>205</v>
       </c>
       <c r="D106" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5777,7 +5793,7 @@
         <v>207</v>
       </c>
       <c r="D107" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5791,7 +5807,7 @@
         <v>209</v>
       </c>
       <c r="D108" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5805,7 +5821,7 @@
         <v>211</v>
       </c>
       <c r="D109" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5819,7 +5835,7 @@
         <v>213</v>
       </c>
       <c r="D110" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5833,7 +5849,7 @@
         <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5847,7 +5863,7 @@
         <v>217</v>
       </c>
       <c r="D112" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5861,7 +5877,7 @@
         <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5875,7 +5891,7 @@
         <v>221</v>
       </c>
       <c r="D114" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5889,7 +5905,7 @@
         <v>223</v>
       </c>
       <c r="D115" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5903,7 +5919,7 @@
         <v>225</v>
       </c>
       <c r="D116" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5914,10 +5930,10 @@
         <v>227</v>
       </c>
       <c r="C117" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D117" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5931,7 +5947,7 @@
         <v>229</v>
       </c>
       <c r="D118" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5945,7 +5961,7 @@
         <v>231</v>
       </c>
       <c r="D119" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5959,7 +5975,7 @@
         <v>233</v>
       </c>
       <c r="D120" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5973,7 +5989,7 @@
         <v>235</v>
       </c>
       <c r="D121" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5987,7 +6003,7 @@
         <v>237</v>
       </c>
       <c r="D122" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6001,7 +6017,7 @@
         <v>239</v>
       </c>
       <c r="D123" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6015,7 +6031,7 @@
         <v>241</v>
       </c>
       <c r="D124" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6029,7 +6045,7 @@
         <v>243</v>
       </c>
       <c r="D125" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6043,7 +6059,7 @@
         <v>245</v>
       </c>
       <c r="D126" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6054,10 +6070,10 @@
         <v>247</v>
       </c>
       <c r="C127" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D127" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6071,7 +6087,7 @@
         <v>248</v>
       </c>
       <c r="D128" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6085,7 +6101,7 @@
         <v>250</v>
       </c>
       <c r="D129" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6099,7 +6115,7 @@
         <v>252</v>
       </c>
       <c r="D130" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6113,7 +6129,7 @@
         <v>254</v>
       </c>
       <c r="D131" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6127,7 +6143,7 @@
         <v>256</v>
       </c>
       <c r="D132" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6138,10 +6154,10 @@
         <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D133" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6155,7 +6171,7 @@
         <v>260</v>
       </c>
       <c r="D134" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6169,7 +6185,7 @@
         <v>262</v>
       </c>
       <c r="D135" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6183,7 +6199,7 @@
         <v>264</v>
       </c>
       <c r="D136" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6197,7 +6213,7 @@
         <v>266</v>
       </c>
       <c r="D137" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6211,7 +6227,7 @@
         <v>268</v>
       </c>
       <c r="D138" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6225,7 +6241,7 @@
         <v>270</v>
       </c>
       <c r="D139" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6239,7 +6255,7 @@
         <v>272</v>
       </c>
       <c r="D140" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6253,7 +6269,7 @@
         <v>274</v>
       </c>
       <c r="D141" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6267,7 +6283,7 @@
         <v>276</v>
       </c>
       <c r="D142" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6281,7 +6297,7 @@
         <v>145</v>
       </c>
       <c r="D143" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6295,7 +6311,7 @@
         <v>279</v>
       </c>
       <c r="D144" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6309,7 +6325,7 @@
         <v>281</v>
       </c>
       <c r="D145" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6323,7 +6339,7 @@
         <v>283</v>
       </c>
       <c r="D146" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6337,7 +6353,7 @@
         <v>285</v>
       </c>
       <c r="D147" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6351,7 +6367,7 @@
         <v>287</v>
       </c>
       <c r="D148" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6365,7 +6381,7 @@
         <v>289</v>
       </c>
       <c r="D149" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6379,7 +6395,7 @@
         <v>291</v>
       </c>
       <c r="D150" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6393,7 +6409,7 @@
         <v>293</v>
       </c>
       <c r="D151" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6407,7 +6423,7 @@
         <v>295</v>
       </c>
       <c r="D152" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6421,7 +6437,7 @@
         <v>297</v>
       </c>
       <c r="D153" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6432,10 +6448,10 @@
         <v>299</v>
       </c>
       <c r="C154" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="D154" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6449,7 +6465,7 @@
         <v>301</v>
       </c>
       <c r="D155" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6463,7 +6479,7 @@
         <v>303</v>
       </c>
       <c r="D156" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6477,7 +6493,7 @@
         <v>305</v>
       </c>
       <c r="D157" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6491,7 +6507,7 @@
         <v>239</v>
       </c>
       <c r="D158" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6505,7 +6521,7 @@
         <v>308</v>
       </c>
       <c r="D159" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6519,7 +6535,7 @@
         <v>310</v>
       </c>
       <c r="D160" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6533,7 +6549,7 @@
         <v>312</v>
       </c>
       <c r="D161" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6547,7 +6563,7 @@
         <v>314</v>
       </c>
       <c r="D162" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6561,7 +6577,7 @@
         <v>316</v>
       </c>
       <c r="D163" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6572,10 +6588,10 @@
         <v>318</v>
       </c>
       <c r="C164" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D164" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6589,7 +6605,7 @@
         <v>320</v>
       </c>
       <c r="D165" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6603,7 +6619,7 @@
         <v>322</v>
       </c>
       <c r="D166" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6617,7 +6633,7 @@
         <v>324</v>
       </c>
       <c r="D167" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6631,7 +6647,7 @@
         <v>326</v>
       </c>
       <c r="D168" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6645,7 +6661,7 @@
         <v>328</v>
       </c>
       <c r="D169" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6659,7 +6675,7 @@
         <v>330</v>
       </c>
       <c r="D170" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6673,7 +6689,7 @@
         <v>332</v>
       </c>
       <c r="D171" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6687,7 +6703,7 @@
         <v>334</v>
       </c>
       <c r="D172" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6701,7 +6717,7 @@
         <v>336</v>
       </c>
       <c r="D173" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6712,10 +6728,10 @@
         <v>338</v>
       </c>
       <c r="C174" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D174" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6729,7 +6745,7 @@
         <v>340</v>
       </c>
       <c r="D175" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6743,7 +6759,7 @@
         <v>342</v>
       </c>
       <c r="D176" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6757,7 +6773,7 @@
         <v>344</v>
       </c>
       <c r="D177" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6771,7 +6787,7 @@
         <v>346</v>
       </c>
       <c r="D178" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6785,7 +6801,7 @@
         <v>348</v>
       </c>
       <c r="D179" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6799,7 +6815,7 @@
         <v>350</v>
       </c>
       <c r="D180" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6810,10 +6826,10 @@
         <v>352</v>
       </c>
       <c r="C181" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D181" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6827,7 +6843,7 @@
         <v>354</v>
       </c>
       <c r="D182" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6841,7 +6857,7 @@
         <v>356</v>
       </c>
       <c r="D183" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6855,7 +6871,7 @@
         <v>358</v>
       </c>
       <c r="D184" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6869,7 +6885,7 @@
         <v>360</v>
       </c>
       <c r="D185" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6883,7 +6899,7 @@
         <v>362</v>
       </c>
       <c r="D186" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6897,7 +6913,7 @@
         <v>364</v>
       </c>
       <c r="D187" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6911,7 +6927,7 @@
         <v>366</v>
       </c>
       <c r="D188" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6925,7 +6941,7 @@
         <v>367</v>
       </c>
       <c r="D189" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6939,7 +6955,7 @@
         <v>369</v>
       </c>
       <c r="D190" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6953,7 +6969,7 @@
         <v>371</v>
       </c>
       <c r="D191" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6967,7 +6983,7 @@
         <v>373</v>
       </c>
       <c r="D192" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6981,7 +6997,7 @@
         <v>375</v>
       </c>
       <c r="D193" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6995,7 +7011,7 @@
         <v>377</v>
       </c>
       <c r="D194" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -7009,7 +7025,7 @@
         <v>379</v>
       </c>
       <c r="D195" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7023,7 +7039,7 @@
         <v>381</v>
       </c>
       <c r="D196" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -7037,7 +7053,7 @@
         <v>383</v>
       </c>
       <c r="D197" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7051,7 +7067,7 @@
         <v>385</v>
       </c>
       <c r="D198" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -7065,7 +7081,7 @@
         <v>387</v>
       </c>
       <c r="D199" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -7079,7 +7095,7 @@
         <v>389</v>
       </c>
       <c r="D200" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -7093,7 +7109,7 @@
         <v>391</v>
       </c>
       <c r="D201" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7107,7 +7123,7 @@
         <v>393</v>
       </c>
       <c r="D202" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7121,7 +7137,7 @@
         <v>395</v>
       </c>
       <c r="D203" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7135,7 +7151,7 @@
         <v>397</v>
       </c>
       <c r="D204" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7149,7 +7165,7 @@
         <v>399</v>
       </c>
       <c r="D205" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7163,7 +7179,7 @@
         <v>401</v>
       </c>
       <c r="D206" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7177,7 +7193,7 @@
         <v>403</v>
       </c>
       <c r="D207" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7191,7 +7207,7 @@
         <v>405</v>
       </c>
       <c r="D208" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7205,7 +7221,7 @@
         <v>407</v>
       </c>
       <c r="D209" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7219,7 +7235,7 @@
         <v>409</v>
       </c>
       <c r="D210" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7233,7 +7249,7 @@
         <v>411</v>
       </c>
       <c r="D211" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7247,7 +7263,7 @@
         <v>413</v>
       </c>
       <c r="D212" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7261,7 +7277,7 @@
         <v>415</v>
       </c>
       <c r="D213" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7275,7 +7291,7 @@
         <v>417</v>
       </c>
       <c r="D214" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7289,7 +7305,7 @@
         <v>419</v>
       </c>
       <c r="D215" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7303,7 +7319,7 @@
         <v>421</v>
       </c>
       <c r="D216" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7317,7 +7333,7 @@
         <v>423</v>
       </c>
       <c r="D217" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7331,7 +7347,7 @@
         <v>425</v>
       </c>
       <c r="D218" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7345,7 +7361,7 @@
         <v>427</v>
       </c>
       <c r="D219" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7359,7 +7375,7 @@
         <v>429</v>
       </c>
       <c r="D220" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7373,7 +7389,7 @@
         <v>431</v>
       </c>
       <c r="D221" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7387,7 +7403,7 @@
         <v>433</v>
       </c>
       <c r="D222" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7401,7 +7417,7 @@
         <v>435</v>
       </c>
       <c r="D223" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7415,7 +7431,7 @@
         <v>437</v>
       </c>
       <c r="D224" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7429,7 +7445,7 @@
         <v>439</v>
       </c>
       <c r="D225" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7443,7 +7459,7 @@
         <v>441</v>
       </c>
       <c r="D226" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7457,7 +7473,7 @@
         <v>443</v>
       </c>
       <c r="D227" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -7471,7 +7487,7 @@
         <v>445</v>
       </c>
       <c r="D228" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7485,7 +7501,7 @@
         <v>447</v>
       </c>
       <c r="D229" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7499,7 +7515,7 @@
         <v>449</v>
       </c>
       <c r="D230" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7513,7 +7529,7 @@
         <v>451</v>
       </c>
       <c r="D231" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -7527,7 +7543,7 @@
         <v>453</v>
       </c>
       <c r="D232" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7541,7 +7557,7 @@
         <v>455</v>
       </c>
       <c r="D233" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7555,7 +7571,7 @@
         <v>457</v>
       </c>
       <c r="D234" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -7569,7 +7585,7 @@
         <v>459</v>
       </c>
       <c r="D235" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7583,7 +7599,7 @@
         <v>461</v>
       </c>
       <c r="D236" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -7597,7 +7613,7 @@
         <v>463</v>
       </c>
       <c r="D237" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -7611,7 +7627,7 @@
         <v>465</v>
       </c>
       <c r="D238" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7625,7 +7641,7 @@
         <v>467</v>
       </c>
       <c r="D239" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7639,7 +7655,7 @@
         <v>469</v>
       </c>
       <c r="D240" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7653,7 +7669,7 @@
         <v>471</v>
       </c>
       <c r="D241" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7667,7 +7683,7 @@
         <v>473</v>
       </c>
       <c r="D242" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7681,7 +7697,7 @@
         <v>475</v>
       </c>
       <c r="D243" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -7695,7 +7711,7 @@
         <v>477</v>
       </c>
       <c r="D244" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -7709,7 +7725,7 @@
         <v>479</v>
       </c>
       <c r="D245" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -7723,7 +7739,7 @@
         <v>481</v>
       </c>
       <c r="D246" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -7737,7 +7753,7 @@
         <v>483</v>
       </c>
       <c r="D247" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -7751,7 +7767,7 @@
         <v>485</v>
       </c>
       <c r="D248" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -7765,7 +7781,7 @@
         <v>487</v>
       </c>
       <c r="D249" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7779,7 +7795,7 @@
         <v>489</v>
       </c>
       <c r="D250" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7793,7 +7809,7 @@
         <v>491</v>
       </c>
       <c r="D251" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7807,7 +7823,7 @@
         <v>493</v>
       </c>
       <c r="D252" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -7821,7 +7837,7 @@
         <v>495</v>
       </c>
       <c r="D253" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7835,7 +7851,7 @@
         <v>497</v>
       </c>
       <c r="D254" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7849,7 +7865,7 @@
         <v>499</v>
       </c>
       <c r="D255" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7863,7 +7879,7 @@
         <v>501</v>
       </c>
       <c r="D256" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7877,7 +7893,7 @@
         <v>503</v>
       </c>
       <c r="D257" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7891,7 +7907,7 @@
         <v>505</v>
       </c>
       <c r="D258" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7905,7 +7921,7 @@
         <v>507</v>
       </c>
       <c r="D259" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7919,7 +7935,7 @@
         <v>509</v>
       </c>
       <c r="D260" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7933,7 +7949,7 @@
         <v>511</v>
       </c>
       <c r="D261" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7947,7 +7963,7 @@
         <v>513</v>
       </c>
       <c r="D262" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7961,7 +7977,7 @@
         <v>515</v>
       </c>
       <c r="D263" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7975,7 +7991,7 @@
         <v>517</v>
       </c>
       <c r="D264" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7989,7 +8005,7 @@
         <v>519</v>
       </c>
       <c r="D265" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -8003,7 +8019,7 @@
         <v>521</v>
       </c>
       <c r="D266" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -8017,7 +8033,7 @@
         <v>523</v>
       </c>
       <c r="D267" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -8031,7 +8047,7 @@
         <v>525</v>
       </c>
       <c r="D268" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -8045,7 +8061,7 @@
         <v>527</v>
       </c>
       <c r="D269" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -8059,7 +8075,7 @@
         <v>529</v>
       </c>
       <c r="D270" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -8073,7 +8089,7 @@
         <v>531</v>
       </c>
       <c r="D271" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -8087,7 +8103,7 @@
         <v>533</v>
       </c>
       <c r="D272" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -8101,7 +8117,7 @@
         <v>535</v>
       </c>
       <c r="D273" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -8115,7 +8131,7 @@
         <v>537</v>
       </c>
       <c r="D274" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -8129,7 +8145,7 @@
         <v>539</v>
       </c>
       <c r="D275" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -8143,7 +8159,7 @@
         <v>541</v>
       </c>
       <c r="D276" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -8157,7 +8173,7 @@
         <v>543</v>
       </c>
       <c r="D277" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8171,7 +8187,7 @@
         <v>545</v>
       </c>
       <c r="D278" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8185,7 +8201,7 @@
         <v>547</v>
       </c>
       <c r="D279" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8199,7 +8215,7 @@
         <v>549</v>
       </c>
       <c r="D280" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -8213,7 +8229,7 @@
         <v>551</v>
       </c>
       <c r="D281" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -8227,7 +8243,7 @@
         <v>553</v>
       </c>
       <c r="D282" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -8241,7 +8257,7 @@
         <v>555</v>
       </c>
       <c r="D283" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -8255,7 +8271,7 @@
         <v>557</v>
       </c>
       <c r="D284" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -8269,7 +8285,7 @@
         <v>559</v>
       </c>
       <c r="D285" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8283,7 +8299,7 @@
         <v>561</v>
       </c>
       <c r="D286" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8297,7 +8313,7 @@
         <v>563</v>
       </c>
       <c r="D287" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -8311,7 +8327,7 @@
         <v>565</v>
       </c>
       <c r="D288" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8325,7 +8341,7 @@
         <v>567</v>
       </c>
       <c r="D289" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -8333,2869 +8349,2869 @@
         <v>568</v>
       </c>
       <c r="B290" t="s">
-        <v>569</v>
+        <v>1097</v>
       </c>
       <c r="C290" t="s">
-        <v>569</v>
+        <v>1097</v>
       </c>
       <c r="D290" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
+        <v>569</v>
+      </c>
+      <c r="B291" t="s">
         <v>570</v>
       </c>
-      <c r="B291" t="s">
-        <v>571</v>
-      </c>
       <c r="C291" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D291" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
+        <v>571</v>
+      </c>
+      <c r="B292" t="s">
         <v>572</v>
       </c>
-      <c r="B292" t="s">
-        <v>573</v>
-      </c>
       <c r="C292" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D292" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
+        <v>573</v>
+      </c>
+      <c r="B293" t="s">
         <v>574</v>
       </c>
-      <c r="B293" t="s">
-        <v>575</v>
-      </c>
       <c r="C293" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D293" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
+        <v>575</v>
+      </c>
+      <c r="B294" t="s">
         <v>576</v>
       </c>
-      <c r="B294" t="s">
-        <v>577</v>
-      </c>
       <c r="C294" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D294" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B295" t="s">
-        <v>579</v>
+        <v>1098</v>
       </c>
       <c r="C295" t="s">
-        <v>579</v>
+        <v>1099</v>
       </c>
       <c r="D295" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B296" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C296" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D296" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B297" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C297" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D297" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B298" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C298" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D298" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B299" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C299" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D299" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B300" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C300" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D300" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B301" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C301" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D301" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B302" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C302" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D302" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B303" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C303" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D303" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B304" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C304" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D304" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B305" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C305" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D305" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B306" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C306" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D306" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B307" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C307" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D307" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B308" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C308" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D308" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B309" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C309" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D309" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B310" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C310" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D310" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B311" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C311" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D311" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B312" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C312" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D312" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B313" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C313" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D313" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B314" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C314" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D314" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B315" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C315" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D315" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B316" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C316" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D316" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B317" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C317" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D317" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B318" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C318" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D318" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B319" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C319" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D319" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B320" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C320" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D320" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B321" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C321" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D321" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B322" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C322" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D322" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B323" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C323" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D323" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B324" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C324" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D324" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B325" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C325" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D325" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B326" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C326" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D326" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B327" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C327" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D327" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B328" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C328" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D328" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B329" t="s">
-        <v>647</v>
+        <v>1102</v>
       </c>
       <c r="C329" t="s">
-        <v>647</v>
+        <v>1103</v>
       </c>
       <c r="D329" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B330" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C330" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D330" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B331" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C331" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D331" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B332" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C332" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D332" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B333" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C333" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D333" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B334" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C334" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D334" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B335" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C335" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D335" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B336" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C336" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D336" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B337" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C337" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D337" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B338" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C338" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D338" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B339" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C339" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D339" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B340" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C340" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D340" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B341" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C341" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D341" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B342" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C342" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D342" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B343" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C343" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D343" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B344" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C344" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D344" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B345" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C345" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D345" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B346" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C346" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D346" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B347" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C347" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D347" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B348" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C348" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D348" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B349" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C349" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D349" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B350" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C350" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D350" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B351" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C351" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D351" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B352" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C352" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D352" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B353" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C353" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D353" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B354" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C354" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D354" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B355" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C355" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D355" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B356" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C356" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D356" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B357" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C357" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D357" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B358" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C358" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D358" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B359" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C359" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D359" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B360" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C360" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D360" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B361" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C361" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D361" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B362" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C362" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D362" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B363" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C363" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D363" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B364" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C364" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D364" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B365" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C365" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D365" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B366" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C366" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D366" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B367" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C367" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D367" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B368" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C368" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D368" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B369" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C369" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D369" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B370" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C370" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D370" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B371" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C371" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D371" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B372" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C372" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D372" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B373" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C373" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D373" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B374" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C374" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D374" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B375" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C375" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D375" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B376" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C376" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D376" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B377" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C377" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D377" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B378" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C378" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D378" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B379" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C379" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D379" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B380" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C380" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D380" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B381" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C381" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D381" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B382" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C382" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D382" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B383" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C383" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D383" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B384" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C384" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D384" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B385" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C385" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D385" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B386" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C386" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D386" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B387" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C387" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D387" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B388" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C388" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D388" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B389" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C389" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D389" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B390" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C390" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D390" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B391" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C391" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D391" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B392" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C392" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D392" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B393" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C393" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D393" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B394" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C394" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D394" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B395" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C395" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D395" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B396" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C396" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D396" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B397" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C397" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D397" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B398" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C398" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D398" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B399" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C399" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D399" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B400" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C400" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D400" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B401" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C401" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D401" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B402" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C402" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D402" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B403" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C403" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D403" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B404" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C404" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D404" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B405" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C405" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D405" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B406" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C406" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D406" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B407" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C407" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D407" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B408" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C408" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D408" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B409" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C409" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D409" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B410" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C410" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D410" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B411" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C411" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D411" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B412" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C412" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D412" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B413" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C413" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D413" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B414" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C414" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D414" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B415" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C415" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D415" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B416" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C416" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D416" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B417" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C417" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D417" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B418" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C418" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D418" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B419" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C419" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D419" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B420" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C420" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D420" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B421" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C421" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D421" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B422" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C422" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D422" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B423" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C423" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D423" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B424" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C424" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D424" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B425" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C425" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D425" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B426" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C426" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D426" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B427" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C427" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D427" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B428" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C428" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D428" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B429" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C429" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D429" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B430" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C430" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D430" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B431" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C431" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D431" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B432" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C432" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D432" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B433" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C433" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D433" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B434" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C434" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D434" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B435" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C435" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D435" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B436" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C436" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D436" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B437" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C437" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D437" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B438" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C438" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D438" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B439" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C439" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D439" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B440" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C440" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D440" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B441" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C441" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D441" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B442" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C442" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D442" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B443" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C443" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D443" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B444" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C444" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D444" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B445" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C445" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D445" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B446" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C446" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D446" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B447" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C447" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D447" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B448" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C448" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D448" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B449" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C449" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D449" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B450" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C450" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D450" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B451" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C451" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D451" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B452" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C452" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D452" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B453" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C453" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D453" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B454" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C454" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D454" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B455" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C455" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D455" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B456" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C456" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D456" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B457" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C457" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D457" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B458" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C458" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D458" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B459" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C459" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D459" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B460" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C460" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D460" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B461" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C461" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D461" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B462" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C462" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D462" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B463" t="s">
-        <v>915</v>
+        <v>1100</v>
       </c>
       <c r="C463" t="s">
-        <v>915</v>
+        <v>1101</v>
       </c>
       <c r="D463" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B464" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C464" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D464" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B465" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C465" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D465" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B466" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C466" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D466" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B467" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C467" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D467" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B468" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C468" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D468" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B469" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C469" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D469" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B470" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C470" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D470" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B471" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C471" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D471" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B472" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C472" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D472" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B473" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C473" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D473" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B474" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C474" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D474" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B475" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C475" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D475" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B476" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C476" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D476" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B477" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C477" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D477" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B478" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C478" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D478" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B479" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C479" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D479" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B480" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C480" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D480" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B481" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C481" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D481" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B482" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C482" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D482" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B483" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C483" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D483" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B484" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C484" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D484" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B485" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C485" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D485" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B486" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C486" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D486" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B487" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C487" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D487" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B488" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C488" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D488" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B489" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C489" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D489" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B490" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C490" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D490" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B491" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C491" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D491" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B492" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C492" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D492" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B493" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C493" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D493" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B494" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C494" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D494" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -11203,13 +11219,13 @@
         <v>0</v>
       </c>
       <c r="B495" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C495" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D495" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -11217,13 +11233,13 @@
         <v>1</v>
       </c>
       <c r="B496" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C496" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D496" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -11231,13 +11247,13 @@
         <v>2</v>
       </c>
       <c r="B497" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C497" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D497" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -11245,13 +11261,13 @@
         <v>3</v>
       </c>
       <c r="B498" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C498" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D498" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -11259,13 +11275,13 @@
         <v>4</v>
       </c>
       <c r="B499" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C499" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D499" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -11273,13 +11289,13 @@
         <v>5</v>
       </c>
       <c r="B500" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D500" t="s">
         <v>1050</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -11287,13 +11303,13 @@
         <v>6</v>
       </c>
       <c r="B501" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C501" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D501" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -11301,13 +11317,13 @@
         <v>7</v>
       </c>
       <c r="B502" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C502" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D502" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -11315,27 +11331,27 @@
         <v>9</v>
       </c>
       <c r="B503" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C503" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D503" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B504" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C504" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D504" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -11344,42 +11360,42 @@
         <v>'</v>
       </c>
       <c r="B505" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C505" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
       <c r="D505" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B506" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C506" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D506" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B507" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C507" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D507" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -11396,259 +11412,259 @@
         <v>+]</v>
       </c>
       <c r="D508" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B509" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C509" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D509" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B510" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C510" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D510" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D511" t="s">
         <v>1071</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D511" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B512" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C512" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D512" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B513" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C513" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D513" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B514" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C514" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D514" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B515" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C515" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D515" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B516" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C516" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="D516" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B517" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D517" t="s">
         <v>1096</v>
-      </c>
-      <c r="C517" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D517" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B518" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C518" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D518" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B519" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C519" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D519" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B520" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C520" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D520" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B521" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C521" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D521" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B522" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C522" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D522" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B523" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C523" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D523" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B524" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C524" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D524" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B525" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C525" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D525" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B526" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C526" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D526" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
